--- a/cea/databases/SG_SLE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/SG_SLE/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Desktop\SG_SLE\archetypes\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YTSA01\CS\CityEnergyAnalyst\cea\databases\SG_SLE\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934C68F7-62AF-484F-868E-11AEF3FB4A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768CB781-82EE-4858-941B-EB20F133D8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16605" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>code</t>
   </si>
@@ -165,14 +165,36 @@
   </si>
   <si>
     <t>RES_CONDO_BASELINE</t>
+  </si>
+  <si>
+    <t>SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>PHARMACEUTICAL</t>
+  </si>
+  <si>
+    <t>TCData_Sup</t>
+  </si>
+  <si>
+    <t>TCData_Re</t>
+  </si>
+  <si>
+    <t>Hp_X_Cool</t>
+  </si>
+  <si>
+    <t>Hp_Ratio</t>
+  </si>
+  <si>
+    <t>N_Hs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -250,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,14 +288,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,28 +604,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,8 +674,23 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -685,8 +733,23 @@
       <c r="N2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" s="3">
+        <v>7</v>
+      </c>
+      <c r="P2" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -729,8 +792,23 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" s="3">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -773,8 +851,23 @@
       <c r="N4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="3">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -817,8 +910,23 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="3">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -861,8 +969,23 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="3">
+        <v>7</v>
+      </c>
+      <c r="P6" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -905,8 +1028,23 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="3">
+        <v>7</v>
+      </c>
+      <c r="P7" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -949,8 +1087,23 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" s="3">
+        <v>7</v>
+      </c>
+      <c r="P8" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -993,8 +1146,23 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" s="3">
+        <v>7</v>
+      </c>
+      <c r="P9" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1037,8 +1205,23 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" s="3">
+        <v>7</v>
+      </c>
+      <c r="P10" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1081,8 +1264,23 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="3">
+        <v>7</v>
+      </c>
+      <c r="P11" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1125,8 +1323,23 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="3">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1169,8 +1382,23 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="3">
+        <v>7</v>
+      </c>
+      <c r="P13" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1213,8 +1441,23 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="3">
+        <v>7</v>
+      </c>
+      <c r="P14" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1470,7 @@
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
@@ -1257,189 +1500,264 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15" s="3">
+        <v>7</v>
+      </c>
+      <c r="P15" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>500</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>7</v>
+      </c>
+      <c r="P16" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.222</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>7</v>
+      </c>
+      <c r="P17" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.106</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>7</v>
+      </c>
+      <c r="P18" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <v>5.7</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>8</v>
       </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>7</v>
+      </c>
+      <c r="P19" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B20" s="3">
         <v>20</v>
-      </c>
-      <c r="C18" s="3">
-        <v>70</v>
-      </c>
-      <c r="D18" s="3">
-        <v>80</v>
-      </c>
-      <c r="E18" s="3">
-        <v>30</v>
-      </c>
-      <c r="F18" s="3">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>10</v>
-      </c>
-      <c r="J18" s="3">
-        <v>20</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3">
-        <v>70</v>
-      </c>
-      <c r="D19" s="3">
-        <v>80</v>
-      </c>
-      <c r="E19" s="3">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>4</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="3">
-        <v>9</v>
       </c>
       <c r="C20" s="3">
         <v>70</v>
@@ -1448,42 +1766,57 @@
         <v>80</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>7</v>
+      </c>
+      <c r="P20" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <v>70</v>
@@ -1492,54 +1825,69 @@
         <v>80</v>
       </c>
       <c r="E21" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3">
-        <v>16</v>
+        <v>10.8</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>20</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>7</v>
+      </c>
+      <c r="P21" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
         <v>70</v>
       </c>
       <c r="D22" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>29</v>
+        <v>6.9</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1551,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1565,13 +1913,28 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" s="3">
+        <v>7</v>
+      </c>
+      <c r="P22" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3">
         <v>70</v>
@@ -1580,67 +1943,82 @@
         <v>80</v>
       </c>
       <c r="E23" s="3">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>20</v>
       </c>
-      <c r="F23" s="3">
-        <v>30</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>7</v>
+      </c>
+      <c r="P23" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="3">
-        <v>80</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B24" s="3">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
         <v>70</v>
       </c>
       <c r="D24" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3">
+        <v>29</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
-        <v>6</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>40</v>
-      </c>
-      <c r="J24" s="3">
-        <v>80</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1653,13 +2031,28 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24" s="3">
+        <v>7</v>
+      </c>
+      <c r="P24" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
         <v>70</v>
@@ -1668,10 +2061,10 @@
         <v>80</v>
       </c>
       <c r="E25" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -1680,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J25" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -1697,13 +2090,28 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25" s="3">
+        <v>7</v>
+      </c>
+      <c r="P25" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3">
         <v>70</v>
@@ -1712,10 +2120,10 @@
         <v>80</v>
       </c>
       <c r="E26" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1724,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J26" s="3">
         <v>80</v>
@@ -1741,19 +2149,34 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26" s="3">
+        <v>7</v>
+      </c>
+      <c r="P26" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3">
         <v>70</v>
       </c>
       <c r="D27" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3">
         <v>9</v>
@@ -1771,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1785,13 +2208,28 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O27" s="3">
+        <v>7</v>
+      </c>
+      <c r="P27" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3">
         <v>70</v>
@@ -1800,10 +2238,10 @@
         <v>80</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F28" s="3">
-        <v>0.7</v>
+        <v>20</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -1828,6 +2266,139 @@
       </c>
       <c r="N28" s="3">
         <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>7</v>
+      </c>
+      <c r="P28" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>70</v>
+      </c>
+      <c r="D29" s="3">
+        <v>90</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>7</v>
+      </c>
+      <c r="P29" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3">
+        <v>70</v>
+      </c>
+      <c r="D30" s="3">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>20</v>
+      </c>
+      <c r="J30" s="3">
+        <v>80</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>7</v>
+      </c>
+      <c r="P30" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -1837,24 +2408,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="2"/>
+    <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +2451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1906,7 +2477,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +2503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1958,7 +2529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1968,7 +2539,7 @@
       <c r="C5" s="4">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>37</v>
       </c>
       <c r="E5" s="4">
@@ -1984,7 +2555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1994,7 +2565,7 @@
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>37</v>
       </c>
       <c r="E6" s="4">
@@ -2010,7 +2581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2036,7 +2607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2046,7 +2617,7 @@
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>37</v>
       </c>
       <c r="E8" s="4">
@@ -2062,7 +2633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2072,7 +2643,7 @@
       <c r="C9" s="4">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>37</v>
       </c>
       <c r="E9" s="4">
@@ -2088,7 +2659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -2098,7 +2669,7 @@
       <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>37</v>
       </c>
       <c r="E10" s="4">
@@ -2114,7 +2685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2124,7 +2695,7 @@
       <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>37</v>
       </c>
       <c r="E11" s="4">
@@ -2140,7 +2711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2166,7 +2737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2176,7 +2747,7 @@
       <c r="C13" s="4">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>37</v>
       </c>
       <c r="E13" s="4">
@@ -2192,7 +2763,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2218,7 +2789,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2244,24 +2815,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
       </c>
-      <c r="D16" s="4">
-        <v>50</v>
+      <c r="D16" s="3">
+        <v>24</v>
       </c>
       <c r="E16" s="4">
         <v>10</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4">
         <v>30</v>
@@ -2270,24 +2841,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4">
         <v>10</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G17" s="4">
         <v>30</v>
@@ -2296,24 +2867,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
-      <c r="D18" s="8">
-        <v>37</v>
+      <c r="D18" s="4">
+        <v>50</v>
       </c>
       <c r="E18" s="4">
         <v>10</v>
       </c>
       <c r="F18" s="4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <v>30</v>
@@ -2322,70 +2893,70 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="D19" s="3">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
         <v>30</v>
       </c>
-      <c r="H19" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3">
         <v>24</v>
       </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
         <v>37</v>
       </c>
-      <c r="E20" s="3">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <v>31</v>
+      </c>
+      <c r="G20" s="4">
         <v>30</v>
       </c>
-      <c r="H20" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E21" s="3">
         <v>10</v>
@@ -2400,12 +2971,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
@@ -2417,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>30</v>
@@ -2426,9 +2997,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3">
         <v>25</v>
@@ -2437,7 +3008,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" s="3">
         <v>10</v>
@@ -2452,24 +3023,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3">
         <v>10</v>
       </c>
       <c r="D24" s="3">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E24" s="3">
         <v>10</v>
       </c>
       <c r="F24" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3">
         <v>30</v>
@@ -2478,9 +3049,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
         <v>25</v>
@@ -2489,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3">
         <v>10</v>
@@ -2504,18 +3075,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3">
         <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E26" s="3">
         <v>10</v>
@@ -2530,24 +3101,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E27" s="3">
         <v>10</v>
       </c>
       <c r="F27" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3">
         <v>30</v>
@@ -2556,18 +3127,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
         <v>10</v>
       </c>
       <c r="D28" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3">
         <v>10</v>
@@ -2579,6 +3150,58 @@
         <v>30</v>
       </c>
       <c r="H28" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <v>37</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3">
+        <v>27</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3">
+        <v>30</v>
+      </c>
+      <c r="H30" s="3">
         <v>70</v>
       </c>
     </row>
